--- a/inspection/asm.xlsx
+++ b/inspection/asm.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98548304-2C7A-4B0D-8264-C8D2866DDEE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="5720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
   <si>
     <t>Manual</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,14 +377,30 @@
   </si>
   <si>
     <t>f_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到doc没看到code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @param api the ASM API version supported by this verifier. Must be one of {@link
+   *     org.objectweb.asm.Opcodes#ASM4}, {@link org.objectweb.asm.Opcodes#ASM5}, {@link
+   *     org.objectweb.asm.Opcodes#ASM6} or {@link org.objectweb.asm.Opcodes#ASM7}.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> switch (insn.getOpcode())
+default:
+        throw new AssertionError();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,8 +422,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +444,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -423,10 +459,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -435,6 +474,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,8 +482,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -720,34 +761,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="130.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -761,7 +803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -774,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -787,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -798,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -809,15 +851,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
@@ -828,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -839,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
@@ -848,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -859,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -870,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -882,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -894,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -906,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -918,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -930,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -942,15 +990,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>87</v>
       </c>
@@ -961,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
@@ -972,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>89</v>
       </c>
@@ -983,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>90</v>
       </c>
@@ -994,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>91</v>
       </c>
@@ -1005,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -1016,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -1027,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -1038,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -1049,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
@@ -1060,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
@@ -1071,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
@@ -1088,18 +1142,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -1110,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -1121,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -1132,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -1142,7 +1202,7 @@
       </c>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -1153,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
@@ -1164,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -1175,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -1186,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
@@ -1197,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
@@ -1208,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
@@ -1219,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
@@ -1230,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>54</v>
       </c>
@@ -1241,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>55</v>
       </c>
@@ -1252,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>56</v>
       </c>
@@ -1263,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>57</v>
       </c>
@@ -1274,15 +1334,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>59</v>
       </c>
@@ -1293,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
@@ -1304,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>61</v>
       </c>
@@ -1315,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>62</v>
       </c>
@@ -1326,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>63</v>
       </c>
@@ -1337,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>64</v>
       </c>
@@ -1348,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
@@ -1359,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>93</v>
       </c>
@@ -1370,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>66</v>
       </c>
@@ -1381,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>94</v>
       </c>
@@ -1392,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>67</v>
       </c>
@@ -1403,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -1414,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>68</v>
       </c>
@@ -1425,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="33.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>69</v>
       </c>
@@ -1436,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>70</v>
       </c>
@@ -1447,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>71</v>
       </c>
@@ -1458,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>72</v>
       </c>
@@ -1467,7 +1530,7 @@
       </c>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>73</v>
       </c>
@@ -1478,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>74</v>
       </c>
@@ -1489,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>75</v>
       </c>
@@ -1500,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>76</v>
       </c>
@@ -1511,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>77</v>
       </c>
@@ -1522,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>77</v>
       </c>
@@ -1533,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>78</v>
       </c>
@@ -1544,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>79</v>
       </c>
@@ -1555,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>80</v>
       </c>
@@ -1566,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>81</v>
       </c>
@@ -1577,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>82</v>
       </c>
@@ -1588,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>83</v>
       </c>
@@ -1599,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
@@ -1610,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>15</v>
       </c>
@@ -1621,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>13</v>
       </c>
@@ -1632,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>14</v>
       </c>
@@ -1643,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>16</v>
       </c>
@@ -1654,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>17</v>
       </c>
@@ -1665,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>18</v>
       </c>
@@ -1676,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>18</v>
       </c>
@@ -1687,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>19</v>
       </c>
@@ -1698,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>20</v>
       </c>
@@ -1709,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>21</v>
       </c>
@@ -1720,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>22</v>
       </c>
@@ -1731,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>22</v>
       </c>
@@ -1742,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>23</v>
       </c>
@@ -1753,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>24</v>
       </c>
@@ -1764,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>25</v>
       </c>
@@ -1775,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>26</v>
       </c>
@@ -1786,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>27</v>
       </c>
@@ -1797,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>28</v>
       </c>
@@ -1808,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>96</v>
       </c>
@@ -1822,67 +1885,67 @@
       </c>
       <c r="D100">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E100">
         <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B102">
         <f>COUNTIFS(B3:B97, 1, D3:D97, 1)</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C102">
         <f>COUNTIFS(C3:C97,1,E3:E97,1)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B104">
         <f>B102/B100</f>
-        <v>0.92500000000000004</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="C104">
         <f>C102/C100</f>
-        <v>0.98148148148148151</v>
+        <v>1</v>
       </c>
       <c r="D104">
         <f>B102/D100</f>
-        <v>0.94871794871794868</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E104">
         <f>C102/E100</f>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B106">
         <f>(B102+C102)/(B100+C100)</f>
-        <v>0.95744680851063835</v>
+        <v>0.98936170212765961</v>
       </c>
       <c r="C106">
         <f>(B102+C102)/(D100+E100)</f>
-        <v>0.97826086956521741</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B108">
         <f>(2*B106*C106)/(B106+C106)</f>
-        <v>0.967741935483871</v>
+        <v>0.97894736842105257</v>
       </c>
     </row>
   </sheetData>
